--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
         <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.951641</v>
+        <v>1.542131666666667</v>
       </c>
       <c r="N2">
-        <v>2.854923</v>
+        <v>4.626395</v>
       </c>
       <c r="O2">
-        <v>0.1812272686155736</v>
+        <v>0.2639921135523384</v>
       </c>
       <c r="P2">
-        <v>0.1812272686155736</v>
+        <v>0.2639921135523383</v>
       </c>
       <c r="Q2">
-        <v>0.2850114040813333</v>
+        <v>0.4618602094644446</v>
       </c>
       <c r="R2">
-        <v>2.565102636732</v>
+        <v>4.156741885180001</v>
       </c>
       <c r="S2">
-        <v>0.09042247065544572</v>
+        <v>0.131717590422836</v>
       </c>
       <c r="T2">
-        <v>0.09042247065544572</v>
+        <v>0.131717590422836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
         <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.566336</v>
       </c>
       <c r="N3">
-        <v>7.699007999999999</v>
+        <v>7.699008000000001</v>
       </c>
       <c r="O3">
-        <v>0.4887242811415404</v>
+        <v>0.4393220626808479</v>
       </c>
       <c r="P3">
-        <v>0.4887242811415404</v>
+        <v>0.4393220626808478</v>
       </c>
       <c r="Q3">
-        <v>0.7686039448746665</v>
+        <v>0.7686039448746668</v>
       </c>
       <c r="R3">
-        <v>6.917435503871999</v>
+        <v>6.917435503872001</v>
       </c>
       <c r="S3">
-        <v>0.2438466203663082</v>
+        <v>0.2191976219942607</v>
       </c>
       <c r="T3">
-        <v>0.2438466203663082</v>
+        <v>0.2191976219942607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
         <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.199344</v>
       </c>
       <c r="O4">
-        <v>0.330048450242886</v>
+        <v>0.2966858237668138</v>
       </c>
       <c r="P4">
-        <v>0.330048450242886</v>
+        <v>0.2966858237668138</v>
       </c>
       <c r="Q4">
-        <v>0.5190585993884443</v>
+        <v>0.5190585993884445</v>
       </c>
       <c r="R4">
-        <v>4.671527394496</v>
+        <v>4.671527394496001</v>
       </c>
       <c r="S4">
-        <v>0.1646760806745288</v>
+        <v>0.148029959279186</v>
       </c>
       <c r="T4">
-        <v>0.1646760806745288</v>
+        <v>0.148029959279186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
         <v>0.5010548283037172</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.951641</v>
+        <v>1.542131666666667</v>
       </c>
       <c r="N5">
-        <v>2.854923</v>
+        <v>4.626395</v>
       </c>
       <c r="O5">
-        <v>0.1812272686155736</v>
+        <v>0.2639921135523384</v>
       </c>
       <c r="P5">
-        <v>0.1812272686155736</v>
+        <v>0.2639921135523383</v>
       </c>
       <c r="Q5">
-        <v>0.286216498801</v>
+        <v>0.4638130621983334</v>
       </c>
       <c r="R5">
-        <v>2.575948489209</v>
+        <v>4.174317559785</v>
       </c>
       <c r="S5">
-        <v>0.09080479796012787</v>
+        <v>0.1322745231295023</v>
       </c>
       <c r="T5">
-        <v>0.09080479796012786</v>
+        <v>0.1322745231295023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,7 +788,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
         <v>0.5010548283037172</v>
@@ -803,25 +803,25 @@
         <v>2.566336</v>
       </c>
       <c r="N6">
-        <v>7.699007999999999</v>
+        <v>7.699008000000001</v>
       </c>
       <c r="O6">
-        <v>0.4887242811415404</v>
+        <v>0.4393220626808479</v>
       </c>
       <c r="P6">
-        <v>0.4887242811415404</v>
+        <v>0.4393220626808478</v>
       </c>
       <c r="Q6">
-        <v>0.7718537816959999</v>
+        <v>0.7718537816960001</v>
       </c>
       <c r="R6">
-        <v>6.946684035263999</v>
+        <v>6.946684035264</v>
       </c>
       <c r="S6">
-        <v>0.2448776607752322</v>
+        <v>0.2201244406865871</v>
       </c>
       <c r="T6">
-        <v>0.2448776607752321</v>
+        <v>0.2201244406865871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,7 +850,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
         <v>0.5010548283037172</v>
@@ -868,10 +868,10 @@
         <v>5.199344</v>
       </c>
       <c r="O7">
-        <v>0.330048450242886</v>
+        <v>0.2966858237668138</v>
       </c>
       <c r="P7">
-        <v>0.330048450242886</v>
+        <v>0.2966858237668138</v>
       </c>
       <c r="Q7">
         <v>0.5212533002613333</v>
@@ -880,10 +880,10 @@
         <v>4.691279702351999</v>
       </c>
       <c r="S7">
-        <v>0.1653723695683572</v>
+        <v>0.1486558644876278</v>
       </c>
       <c r="T7">
-        <v>0.1653723695683572</v>
+        <v>0.1486558644876278</v>
       </c>
     </row>
   </sheetData>
